--- a/basic_results/totally.xlsx
+++ b/basic_results/totally.xlsx
@@ -557,150 +557,150 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.29263961492685</v>
+        <v>74.25699545247026</v>
       </c>
       <c r="B2" t="n">
-        <v>173.9137537264577</v>
+        <v>114.0446165778251</v>
       </c>
       <c r="C2" t="n">
-        <v>31823.74875372646</v>
+        <v>31763.87961657783</v>
       </c>
       <c r="D2" t="n">
-        <v>28.97906360095268</v>
+        <v>68.41603039133541</v>
       </c>
       <c r="E2" t="n">
-        <v>170.6618681899122</v>
+        <v>106.8212086161748</v>
       </c>
       <c r="F2" t="n">
-        <v>31820.49686818991</v>
+        <v>31756.65620861618</v>
       </c>
       <c r="G2" t="n">
-        <v>24.15644278984697</v>
+        <v>65.03990972889331</v>
       </c>
       <c r="H2" t="n">
-        <v>163.5518694256575</v>
+        <v>102.4765990439643</v>
       </c>
       <c r="I2" t="n">
-        <v>31813.38686942566</v>
+        <v>31752.31159904397</v>
       </c>
       <c r="J2" t="n">
-        <v>23.98549509445704</v>
+        <v>64.68133609400752</v>
       </c>
       <c r="K2" t="n">
-        <v>161.4152804356162</v>
+        <v>100.1603621734716</v>
       </c>
       <c r="L2" t="n">
-        <v>31811.25028043562</v>
+        <v>31749.99536217347</v>
       </c>
       <c r="M2" t="n">
-        <v>24.30338864187955</v>
+        <v>63.08962029764026</v>
       </c>
       <c r="N2" t="n">
-        <v>150.9148123183222</v>
+        <v>93.48708168739373</v>
       </c>
       <c r="O2" t="n">
-        <v>31800.74981231832</v>
+        <v>31743.3220816874</v>
       </c>
       <c r="P2" t="n">
-        <v>22.58586939854053</v>
+        <v>61.22258095072055</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.3734907768496</v>
+        <v>90.29671765609207</v>
       </c>
       <c r="R2" t="n">
-        <v>31801.20849077685</v>
+        <v>31740.1317176561</v>
       </c>
       <c r="S2" t="n">
-        <v>19.68865186975087</v>
+        <v>57.57868170079351</v>
       </c>
       <c r="T2" t="n">
-        <v>129.2732771662581</v>
+        <v>80.05810677861801</v>
       </c>
       <c r="U2" t="n">
-        <v>31779.10827716626</v>
+        <v>31729.89310677862</v>
       </c>
       <c r="V2" t="n">
-        <v>20.63131742041165</v>
+        <v>57.06497210501463</v>
       </c>
       <c r="W2" t="n">
-        <v>124.7687570788573</v>
+        <v>68.10727964228272</v>
       </c>
       <c r="X2" t="n">
-        <v>31774.60375707886</v>
+        <v>31717.94227964228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41.59966551342279</v>
+        <v>55.5818434321945</v>
       </c>
       <c r="B3" t="n">
-        <v>105.5018825691882</v>
+        <v>75.56731399487191</v>
       </c>
       <c r="C3" t="n">
-        <v>105.4992625691882</v>
+        <v>75.5646939948719</v>
       </c>
       <c r="D3" t="n">
-        <v>50.12809548938528</v>
+        <v>69.61488180208113</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8915887779468</v>
+        <v>71.97125899107809</v>
       </c>
       <c r="F3" t="n">
-        <v>103.8889687779468</v>
+        <v>71.96863899107808</v>
       </c>
       <c r="G3" t="n">
-        <v>47.86906950119955</v>
+        <v>68.09093960632586</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3515566924572</v>
+        <v>69.81392150161055</v>
       </c>
       <c r="I3" t="n">
-        <v>100.3489366924572</v>
+        <v>69.81130150161056</v>
       </c>
       <c r="J3" t="n">
-        <v>47.96881150537978</v>
+        <v>67.87144972500792</v>
       </c>
       <c r="K3" t="n">
-        <v>99.29187937102958</v>
+        <v>68.66442023995725</v>
       </c>
       <c r="L3" t="n">
-        <v>99.28925937102957</v>
+        <v>68.66180023995724</v>
       </c>
       <c r="M3" t="n">
-        <v>48.17360219046266</v>
+        <v>66.97171620014764</v>
       </c>
       <c r="N3" t="n">
-        <v>94.06299560852227</v>
+        <v>65.34913029305802</v>
       </c>
       <c r="O3" t="n">
-        <v>94.06037560852229</v>
+        <v>65.34651029305803</v>
       </c>
       <c r="P3" t="n">
-        <v>47.32581727537423</v>
+        <v>66.01387670180219</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.30870690968794</v>
+        <v>63.77032034930916</v>
       </c>
       <c r="R3" t="n">
-        <v>94.30608690968793</v>
+        <v>63.76770034930916</v>
       </c>
       <c r="S3" t="n">
-        <v>45.72558990287423</v>
+        <v>64.16500506392956</v>
       </c>
       <c r="T3" t="n">
-        <v>83.30276029031205</v>
+        <v>58.69517509649199</v>
       </c>
       <c r="U3" t="n">
-        <v>83.30014029031204</v>
+        <v>58.69255509649199</v>
       </c>
       <c r="V3" t="n">
-        <v>46.15494086569343</v>
+        <v>63.85483286784373</v>
       </c>
       <c r="W3" t="n">
-        <v>81.08137627647395</v>
+        <v>52.75063755818665</v>
       </c>
       <c r="X3" t="n">
-        <v>81.07875627647397</v>
+        <v>52.74801755818664</v>
       </c>
     </row>
   </sheetData>
